--- a/performance.xlsx
+++ b/performance.xlsx
@@ -882,77 +882,392 @@
       <c r="A16" t="str">
         <v>10</v>
       </c>
+      <c r="C16" t="str">
+        <v>0.080</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0.089</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0.064</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0.073</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0.065</v>
+      </c>
       <c r="I16" t="str">
         <v>10</v>
       </c>
+      <c r="K16" t="str">
+        <v>0.112</v>
+      </c>
+      <c r="L16" t="str">
+        <v>0.103</v>
+      </c>
+      <c r="M16" t="str">
+        <v>0.124</v>
+      </c>
+      <c r="N16" t="str">
+        <v>0.109</v>
+      </c>
+      <c r="O16" t="str">
+        <v>0.127</v>
+      </c>
       <c r="Q16" t="str">
         <v>10</v>
+      </c>
+      <c r="S16" t="str">
+        <v>0.110</v>
+      </c>
+      <c r="T16" t="str">
+        <v>0.096</v>
+      </c>
+      <c r="U16" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="V16" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="W16" t="str">
+        <v>0.109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>100</v>
       </c>
+      <c r="C17" t="str">
+        <v>0.238</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0.220</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0.209</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0.211</v>
+      </c>
+      <c r="G17" t="str">
+        <v>0.214</v>
+      </c>
       <c r="I17" t="str">
         <v>100</v>
       </c>
+      <c r="K17" t="str">
+        <v>0.358</v>
+      </c>
+      <c r="L17" t="str">
+        <v>0.392</v>
+      </c>
+      <c r="M17" t="str">
+        <v>0.369</v>
+      </c>
+      <c r="N17" t="str">
+        <v>0.374</v>
+      </c>
+      <c r="O17" t="str">
+        <v>0.372</v>
+      </c>
       <c r="Q17" t="str">
         <v>100</v>
+      </c>
+      <c r="S17" t="str">
+        <v>0.416</v>
+      </c>
+      <c r="T17" t="str">
+        <v>0.443</v>
+      </c>
+      <c r="U17" t="str">
+        <v>0.429</v>
+      </c>
+      <c r="V17" t="str">
+        <v>0.441</v>
+      </c>
+      <c r="W17" t="str">
+        <v>0.448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>1000</v>
       </c>
+      <c r="C18" t="str">
+        <v>2.017</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2.019</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1.999</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2.024</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2.031</v>
+      </c>
       <c r="I18" t="str">
         <v>1000</v>
       </c>
+      <c r="K18" t="str">
+        <v>3.649</v>
+      </c>
+      <c r="L18" t="str">
+        <v>3.721</v>
+      </c>
+      <c r="M18" t="str">
+        <v>3.643</v>
+      </c>
+      <c r="N18" t="str">
+        <v>3.622</v>
+      </c>
+      <c r="O18" t="str">
+        <v>3.849</v>
+      </c>
       <c r="Q18" t="str">
         <v>1000</v>
+      </c>
+      <c r="S18" t="str">
+        <v>4.545</v>
+      </c>
+      <c r="T18" t="str">
+        <v>4.284</v>
+      </c>
+      <c r="U18" t="str">
+        <v>4.559</v>
+      </c>
+      <c r="V18" t="str">
+        <v>4.541</v>
+      </c>
+      <c r="W18" t="str">
+        <v>4.354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>10,000</v>
       </c>
+      <c r="C19" t="str">
+        <v>18.494</v>
+      </c>
+      <c r="D19" t="str">
+        <v>19.119</v>
+      </c>
+      <c r="E19" t="str">
+        <v>18.574</v>
+      </c>
+      <c r="F19" t="str">
+        <v>18.487</v>
+      </c>
+      <c r="G19" t="str">
+        <v>18.509</v>
+      </c>
       <c r="I19" t="str">
         <v>10,000</v>
       </c>
+      <c r="K19" t="str">
+        <v>32.167</v>
+      </c>
+      <c r="L19" t="str">
+        <v>34.933</v>
+      </c>
+      <c r="M19" t="str">
+        <v>34.248</v>
+      </c>
+      <c r="N19" t="str">
+        <v>36.318</v>
+      </c>
+      <c r="O19" t="str">
+        <v>33.884</v>
+      </c>
       <c r="Q19" t="str">
         <v>10,000</v>
+      </c>
+      <c r="S19" t="str">
+        <v>38.773</v>
+      </c>
+      <c r="T19" t="str">
+        <v>40.840</v>
+      </c>
+      <c r="U19" t="str">
+        <v>44.638</v>
+      </c>
+      <c r="V19" t="str">
+        <v>40.418</v>
+      </c>
+      <c r="W19" t="str">
+        <v>42.124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>100,000</v>
       </c>
+      <c r="C20" t="str">
+        <v>182.655</v>
+      </c>
+      <c r="D20" t="str">
+        <v>185.347</v>
+      </c>
+      <c r="E20" t="str">
+        <v>189.275</v>
+      </c>
+      <c r="F20" t="str">
+        <v>185.037</v>
+      </c>
+      <c r="G20" t="str">
+        <v>196.859</v>
+      </c>
       <c r="I20" t="str">
         <v>100,000</v>
       </c>
+      <c r="K20" t="str">
+        <v>341.280</v>
+      </c>
+      <c r="L20" t="str">
+        <v>369.937</v>
+      </c>
+      <c r="M20" t="str">
+        <v>335.015</v>
+      </c>
+      <c r="N20" t="str">
+        <v>351.812</v>
+      </c>
+      <c r="O20" t="str">
+        <v>341.444</v>
+      </c>
       <c r="Q20" t="str">
         <v>100,000</v>
+      </c>
+      <c r="S20" t="str">
+        <v>374.761</v>
+      </c>
+      <c r="T20" t="str">
+        <v>429.299</v>
+      </c>
+      <c r="U20" t="str">
+        <v>435.310</v>
+      </c>
+      <c r="V20" t="str">
+        <v>447.457</v>
+      </c>
+      <c r="W20" t="str">
+        <v>399.806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>1,000,000</v>
       </c>
+      <c r="C21" t="str">
+        <v>2329</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2743</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2449</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2569</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2452</v>
+      </c>
       <c r="I21" t="str">
         <v>1,000,000</v>
       </c>
+      <c r="K21" t="str">
+        <v>4458</v>
+      </c>
+      <c r="L21" t="str">
+        <v>4574</v>
+      </c>
+      <c r="M21" t="str">
+        <v>4705</v>
+      </c>
+      <c r="N21" t="str">
+        <v>4465</v>
+      </c>
+      <c r="O21" t="str">
+        <v>4585</v>
+      </c>
       <c r="Q21" t="str">
         <v>1,000,000</v>
+      </c>
+      <c r="S21" t="str">
+        <v>5205</v>
+      </c>
+      <c r="T21" t="str">
+        <v>5343</v>
+      </c>
+      <c r="U21" t="str">
+        <v>5453</v>
+      </c>
+      <c r="V21" t="str">
+        <v>5255</v>
+      </c>
+      <c r="W21" t="str">
+        <v>5691</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>10,000,000</v>
       </c>
+      <c r="C22" t="str">
+        <v>23405</v>
+      </c>
+      <c r="D22" t="str">
+        <v>24666</v>
+      </c>
+      <c r="E22" t="str">
+        <v>24174</v>
+      </c>
+      <c r="F22" t="str">
+        <v>24027</v>
+      </c>
+      <c r="G22" t="str">
+        <v>24364</v>
+      </c>
       <c r="I22" t="str">
         <v>10,000,000</v>
       </c>
+      <c r="K22" t="str">
+        <v>46471</v>
+      </c>
+      <c r="L22" t="str">
+        <v>46976</v>
+      </c>
+      <c r="M22" t="str">
+        <v>46435</v>
+      </c>
+      <c r="N22" t="str">
+        <v>47109</v>
+      </c>
+      <c r="O22" t="str">
+        <v>46818</v>
+      </c>
       <c r="Q22" t="str">
         <v>10,000,000</v>
+      </c>
+      <c r="S22" t="str">
+        <v>54934</v>
+      </c>
+      <c r="T22" t="str">
+        <v>55371</v>
+      </c>
+      <c r="U22" t="str">
+        <v>54670</v>
+      </c>
+      <c r="V22" t="str">
+        <v>54755</v>
+      </c>
+      <c r="W22" t="str">
+        <v>54980</v>
       </c>
     </row>
     <row r="25">
@@ -1001,66 +1316,336 @@
       <c r="A28" t="str">
         <v>10</v>
       </c>
+      <c r="C28" t="str">
+        <v>0.068</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0.064</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0.080</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0.063</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.065</v>
+      </c>
       <c r="I28" t="str">
         <v>10</v>
       </c>
+      <c r="K28" t="str">
+        <v>0.096</v>
+      </c>
+      <c r="L28" t="str">
+        <v>0.095</v>
+      </c>
+      <c r="M28" t="str">
+        <v>0.081</v>
+      </c>
+      <c r="N28" t="str">
+        <v>0.084</v>
+      </c>
+      <c r="O28" t="str">
+        <v>0.080</v>
+      </c>
       <c r="Q28" t="str">
         <v>10</v>
+      </c>
+      <c r="S28" t="str">
+        <v>0.098</v>
+      </c>
+      <c r="T28" t="str">
+        <v>0.108</v>
+      </c>
+      <c r="U28" t="str">
+        <v>0.107</v>
+      </c>
+      <c r="V28" t="str">
+        <v>0.098</v>
+      </c>
+      <c r="W28" t="str">
+        <v>0.109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <v>100</v>
       </c>
+      <c r="C29" t="str">
+        <v>0.142</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0.143</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0.148</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0.142</v>
+      </c>
+      <c r="G29" t="str">
+        <v>0.153</v>
+      </c>
       <c r="I29" t="str">
         <v>100</v>
       </c>
+      <c r="K29" t="str">
+        <v>0.207</v>
+      </c>
+      <c r="L29" t="str">
+        <v>0.180</v>
+      </c>
+      <c r="M29" t="str">
+        <v>0.191</v>
+      </c>
+      <c r="N29" t="str">
+        <v>0.177</v>
+      </c>
+      <c r="O29" t="str">
+        <v>0.213</v>
+      </c>
       <c r="Q29" t="str">
         <v>100</v>
+      </c>
+      <c r="S29" t="str">
+        <v>0.235</v>
+      </c>
+      <c r="T29" t="str">
+        <v>0.230</v>
+      </c>
+      <c r="U29" t="str">
+        <v>0.223</v>
+      </c>
+      <c r="V29" t="str">
+        <v>0.226</v>
+      </c>
+      <c r="W29" t="str">
+        <v>0.228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>1000</v>
       </c>
+      <c r="C30" t="str">
+        <v>0.958</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.961</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0.940</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0.979</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.943</v>
+      </c>
       <c r="I30" t="str">
         <v>1000</v>
       </c>
+      <c r="K30" t="str">
+        <v>1.414</v>
+      </c>
+      <c r="L30" t="str">
+        <v>1.409</v>
+      </c>
+      <c r="M30" t="str">
+        <v>1.399</v>
+      </c>
+      <c r="N30" t="str">
+        <v>1.397</v>
+      </c>
+      <c r="O30" t="str">
+        <v>1.411</v>
+      </c>
       <c r="Q30" t="str">
         <v>1000</v>
+      </c>
+      <c r="S30" t="str">
+        <v>1.745</v>
+      </c>
+      <c r="T30" t="str">
+        <v>1.760</v>
+      </c>
+      <c r="U30" t="str">
+        <v>1.710</v>
+      </c>
+      <c r="V30" t="str">
+        <v>1.682</v>
+      </c>
+      <c r="W30" t="str">
+        <v>1.705</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
         <v>10,000</v>
       </c>
+      <c r="C31" t="str">
+        <v>10.507</v>
+      </c>
+      <c r="D31" t="str">
+        <v>10.649</v>
+      </c>
+      <c r="E31" t="str">
+        <v>10.473</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10.523</v>
+      </c>
+      <c r="G31" t="str">
+        <v>10.367</v>
+      </c>
       <c r="I31" t="str">
         <v>10,000</v>
       </c>
+      <c r="K31" t="str">
+        <v>16.008</v>
+      </c>
+      <c r="L31" t="str">
+        <v>16.773</v>
+      </c>
+      <c r="M31" t="str">
+        <v>16.271</v>
+      </c>
+      <c r="N31" t="str">
+        <v>15.982</v>
+      </c>
+      <c r="O31" t="str">
+        <v>17.855</v>
+      </c>
       <c r="Q31" t="str">
         <v>10,000</v>
+      </c>
+      <c r="S31" t="str">
+        <v>20.593</v>
+      </c>
+      <c r="T31" t="str">
+        <v>20.647</v>
+      </c>
+      <c r="U31" t="str">
+        <v>20.033</v>
+      </c>
+      <c r="V31" t="str">
+        <v>19.378</v>
+      </c>
+      <c r="W31" t="str">
+        <v>21.080</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
         <v>100,000</v>
       </c>
+      <c r="C32" t="str">
+        <v>130.932</v>
+      </c>
+      <c r="D32" t="str">
+        <v>137.343</v>
+      </c>
+      <c r="E32" t="str">
+        <v>129.685</v>
+      </c>
+      <c r="F32" t="str">
+        <v>129.479</v>
+      </c>
+      <c r="G32" t="str">
+        <v>124.224</v>
+      </c>
       <c r="I32" t="str">
         <v>100,000</v>
       </c>
+      <c r="K32" t="str">
+        <v>218.127</v>
+      </c>
+      <c r="L32" t="str">
+        <v>212.213</v>
+      </c>
+      <c r="M32" t="str">
+        <v>218.445</v>
+      </c>
+      <c r="N32" t="str">
+        <v>212.709</v>
+      </c>
+      <c r="O32" t="str">
+        <v>216.333</v>
+      </c>
       <c r="Q32" t="str">
         <v>100,000</v>
+      </c>
+      <c r="S32" t="str">
+        <v>255.067</v>
+      </c>
+      <c r="T32" t="str">
+        <v>257.666</v>
+      </c>
+      <c r="U32" t="str">
+        <v>260.367</v>
+      </c>
+      <c r="V32" t="str">
+        <v>262.299</v>
+      </c>
+      <c r="W32" t="str">
+        <v>265.125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
         <v>1,000,000</v>
       </c>
+      <c r="C33" t="str">
+        <v>1783</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1825</v>
+      </c>
+      <c r="E33" t="str">
+        <v>1769</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2079</v>
+      </c>
+      <c r="G33" t="str">
+        <v>1827</v>
+      </c>
       <c r="I33" t="str">
         <v>1,000,000</v>
       </c>
+      <c r="K33" t="str">
+        <v>3085</v>
+      </c>
+      <c r="L33" t="str">
+        <v>3150</v>
+      </c>
+      <c r="M33" t="str">
+        <v>3108</v>
+      </c>
+      <c r="N33" t="str">
+        <v>3136</v>
+      </c>
+      <c r="O33" t="str">
+        <v>3069</v>
+      </c>
       <c r="Q33" t="str">
         <v>1,000,000</v>
+      </c>
+      <c r="S33" t="str">
+        <v>3971</v>
+      </c>
+      <c r="T33" t="str">
+        <v>3901</v>
+      </c>
+      <c r="U33" t="str">
+        <v>3931</v>
+      </c>
+      <c r="V33" t="str">
+        <v>3896</v>
+      </c>
+      <c r="W33" t="str">
+        <v>3910</v>
       </c>
     </row>
     <row r="34">
@@ -1120,8 +1705,38 @@
       <c r="A40" t="str">
         <v>10</v>
       </c>
+      <c r="C40" t="str">
+        <v>0.079</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0.060</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0.073</v>
+      </c>
+      <c r="F40" t="str">
+        <v>0.094</v>
+      </c>
+      <c r="G40" t="str">
+        <v>0.077</v>
+      </c>
       <c r="I40" t="str">
         <v>10</v>
+      </c>
+      <c r="K40" t="str">
+        <v>0.119</v>
+      </c>
+      <c r="L40" t="str">
+        <v>0.111</v>
+      </c>
+      <c r="M40" t="str">
+        <v>0.154</v>
+      </c>
+      <c r="N40" t="str">
+        <v>0.081</v>
+      </c>
+      <c r="O40" t="str">
+        <v>0.081</v>
       </c>
       <c r="Q40" t="str">
         <v>10</v>
